--- a/qingqianDoc/测试开发/工时标准.xlsx
+++ b/qingqianDoc/测试开发/工时标准.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="9405"/>
+    <workbookView windowWidth="28710" windowHeight="14085" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工时标准" sheetId="1" r:id="rId1"/>
+    <sheet name="研发工时标准" sheetId="1" r:id="rId1"/>
+    <sheet name="测试工时标准" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
   <si>
     <t>分类</t>
   </si>
@@ -241,19 +242,189 @@
   <si>
     <t>实现选集功能</t>
   </si>
+  <si>
+    <t>搭建环境</t>
+  </si>
+  <si>
+    <t>纯dcms后台</t>
+  </si>
+  <si>
+    <t>1）build-war包
+2）tomcat+jdk
+3）数据库初始化
+4）dcms配置
+5）dcms启动后验证</t>
+  </si>
+  <si>
+    <t>dcms+collect+ftp</t>
+  </si>
+  <si>
+    <t>dcms+collect+epg</t>
+  </si>
+  <si>
+    <t>搭建oracle数据库</t>
+  </si>
+  <si>
+    <t>搭建mysql数据库</t>
+  </si>
+  <si>
+    <t>oracle导入/导出</t>
+  </si>
+  <si>
+    <t>小于1G</t>
+  </si>
+  <si>
+    <t>mysql导入/导出</t>
+  </si>
+  <si>
+    <t>小于2G</t>
+  </si>
+  <si>
+    <t>测试用例</t>
+  </si>
+  <si>
+    <t>后台增删改查</t>
+  </si>
+  <si>
+    <t>130条用例</t>
+  </si>
+  <si>
+    <t>后台增删改查+复杂逻辑</t>
+  </si>
+  <si>
+    <t>如:转码中心调度、分发任务调度
+80条用例</t>
+  </si>
+  <si>
+    <t>EPG用例</t>
+  </si>
+  <si>
+    <t>接口用例</t>
+  </si>
+  <si>
+    <t>100条用例</t>
+  </si>
+  <si>
+    <t>执行用例</t>
+  </si>
+  <si>
+    <t>后台-100条用例（一轮）</t>
+  </si>
+  <si>
+    <t>后台-100-200条用例（一轮）</t>
+  </si>
+  <si>
+    <t>后台-200-300条用例（一轮）</t>
+  </si>
+  <si>
+    <t>后台-300-400条用例（一轮）</t>
+  </si>
+  <si>
+    <t>后台-400-500条用例（一轮）</t>
+  </si>
+  <si>
+    <t>后台-500-以上</t>
+  </si>
+  <si>
+    <t>EPG-100条用例（一轮）</t>
+  </si>
+  <si>
+    <t>EPG-100-200条用例（一轮）</t>
+  </si>
+  <si>
+    <t>EPG-200-300条用例（一轮）</t>
+  </si>
+  <si>
+    <t>EPG-300-400条用例（一轮）</t>
+  </si>
+  <si>
+    <t>接口测试-用例TestNG开发</t>
+  </si>
+  <si>
+    <t>50条 case</t>
+  </si>
+  <si>
+    <t>验证Bug</t>
+  </si>
+  <si>
+    <t>后台-页面逻辑</t>
+  </si>
+  <si>
+    <t>80Bug</t>
+  </si>
+  <si>
+    <t>后台-复杂逻辑</t>
+  </si>
+  <si>
+    <t>60Bug</t>
+  </si>
+  <si>
+    <t>修补测试用例</t>
+  </si>
+  <si>
+    <t>后台补50条用例逻辑(删除、新增、修改、合并)</t>
+  </si>
+  <si>
+    <t>(修补用例+新增用例)/原总测试用例比
+高于35% 证明前一版本测试用例编写质量太差
+低于15% 有可能是需求理解正确 也有可能是到现在还没有理解到位</t>
+  </si>
+  <si>
+    <t>前台补60条用例逻辑(删除、新增、修改、合并)</t>
+  </si>
+  <si>
+    <t>高于30% 证明前一版本测试用例编写质量太差
+低于10% 有可能是需求理解正确 也有可能是到现在还没有理解到位</t>
+  </si>
+  <si>
+    <t>性能测试</t>
+  </si>
+  <si>
+    <t>接口的性能测试(6个接口)</t>
+  </si>
+  <si>
+    <t>1）测试方案
+2）搭建环境
+3）造数据
+4）录脚本
+5）打压
+6）测试报告</t>
+  </si>
+  <si>
+    <t>页面的性能测试(6个页面)</t>
+  </si>
+  <si>
+    <t>1）测试方案
+2）搭建环境
+3）录脚本
+4）打压
+5）测试报告
+每个页面打压时间需在2小时以上
+需有一个24小时的稳定性测试</t>
+  </si>
+  <si>
+    <t>兼容性测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">兼容性测试--功能测试已完成
+</t>
+  </si>
+  <si>
+    <t>一款盒子的兼容性测试时间 是一轮用例执行所需时间的1/3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -269,18 +440,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -305,7 +464,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -328,6 +487,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -351,18 +560,56 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -724,11 +971,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -754,491 +1001,491 @@
   <sheetPr/>
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="33.875" customWidth="1"/>
-    <col min="3" max="3" width="46.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="148.5" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="23">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="148.5" spans="1:4">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="23">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="23">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="23">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
     </row>
     <row r="10" ht="27" spans="1:4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:4">
-      <c r="A15" s="6"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="23">
         <v>32</v>
       </c>
     </row>
     <row r="16" ht="40.5" spans="1:4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="8" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="31">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="6"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="31">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="6"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="31">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="6"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="31">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="6"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="31">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="6"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
     </row>
     <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="6"/>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6"/>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="6"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="23">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="6"/>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="23">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="6"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="6"/>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9">
+      <c r="C29" s="22"/>
+      <c r="D29" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="6"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="20"/>
+      <c r="B30" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9">
+      <c r="C30" s="22"/>
+      <c r="D30" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="6"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9">
+      <c r="C31" s="22"/>
+      <c r="D31" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="6"/>
-      <c r="B32" s="10" t="s">
+      <c r="A32" s="20"/>
+      <c r="B32" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9">
+      <c r="C32" s="22"/>
+      <c r="D32" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="6"/>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="20"/>
+      <c r="B33" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9">
+      <c r="C33" s="22"/>
+      <c r="D33" s="23">
         <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="6"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="23">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="18"/>
-      <c r="B36" s="10" t="s">
+      <c r="A36" s="32"/>
+      <c r="B36" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9">
+      <c r="C36" s="22"/>
+      <c r="D36" s="23">
         <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="6"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23"/>
     </row>
     <row r="38" customHeight="1" spans="1:4">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9">
+      <c r="C38" s="22"/>
+      <c r="D38" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="6"/>
-      <c r="B39" s="10" t="s">
+      <c r="A39" s="20"/>
+      <c r="B39" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9">
+      <c r="C39" s="22"/>
+      <c r="D39" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="6"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="6"/>
-      <c r="B41" s="10" t="s">
+      <c r="A41" s="20"/>
+      <c r="B41" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="9"/>
+      <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="6"/>
-      <c r="B42" s="10" t="s">
+      <c r="A42" s="20"/>
+      <c r="B42" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="9"/>
+      <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="6"/>
-      <c r="B43" s="10" t="s">
+      <c r="A43" s="20"/>
+      <c r="B43" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="9"/>
+      <c r="D43" s="23"/>
     </row>
     <row r="44" ht="27" spans="1:4">
-      <c r="A44" s="6"/>
-      <c r="B44" s="10" t="s">
+      <c r="A44" s="20"/>
+      <c r="B44" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="23">
         <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="6"/>
-      <c r="B45" s="10" t="s">
+      <c r="A45" s="20"/>
+      <c r="B45" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9">
+      <c r="C45" s="22"/>
+      <c r="D45" s="23">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="6"/>
-      <c r="B46" s="10" t="s">
+      <c r="A46" s="20"/>
+      <c r="B46" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9">
+      <c r="C46" s="22"/>
+      <c r="D46" s="23">
         <v>8</v>
       </c>
     </row>
@@ -1256,4 +1503,406 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:E34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A30" sqref="$A30:$XFD30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27" spans="2:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="67.5" spans="2:5">
+      <c r="B2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="9"/>
+      <c r="C3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="9"/>
+      <c r="C4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="9"/>
+      <c r="C5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="9"/>
+      <c r="C6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="9"/>
+      <c r="C7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="10"/>
+      <c r="C8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="2:5">
+      <c r="B10" s="9"/>
+      <c r="C10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="9"/>
+      <c r="C11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="10"/>
+      <c r="C12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="9"/>
+      <c r="C14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="9"/>
+      <c r="C15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="9"/>
+      <c r="C16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="9"/>
+      <c r="C17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="9"/>
+      <c r="C18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="9"/>
+      <c r="C19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="9"/>
+      <c r="C20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="9"/>
+      <c r="C21" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="9"/>
+      <c r="C22" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="9"/>
+      <c r="C23" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="9"/>
+      <c r="C25" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" ht="94.5" spans="2:5">
+      <c r="B26" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" ht="67.5" spans="2:5">
+      <c r="B27" s="9"/>
+      <c r="C27" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" ht="81" spans="2:5">
+      <c r="B28" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" ht="121.5" spans="2:5">
+      <c r="B29" s="12"/>
+      <c r="C29" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" ht="40.5" spans="2:5">
+      <c r="B30" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>